--- a/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/Baseline_UC3.4.4_TC1/UC3.4.4_TC1.evaluation.xlsx
+++ b/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/Baseline_UC3.4.4_TC1/UC3.4.4_TC1.evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1294,9 +1294,7 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
         <v>24</v>
@@ -4350,7 +4348,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -4360,7 +4360,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>12</v>
@@ -4370,7 +4372,9 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -4408,7 +4412,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>18</v>
@@ -4418,7 +4424,9 @@
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
         <v>28</v>
@@ -4428,7 +4436,9 @@
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -4448,7 +4458,9 @@
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
         <v>31</v>
@@ -7490,7 +7502,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -7500,7 +7514,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>12</v>
@@ -7510,7 +7526,9 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -7548,7 +7566,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>18</v>
@@ -7558,7 +7578,9 @@
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
         <v>32</v>
@@ -7568,7 +7590,9 @@
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -7588,7 +7612,9 @@
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
         <v>35</v>
